--- a/Traduzido/PTBR/Lang/PTBR/Game/Person.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Person.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE5C18-91D7-4323-85CC-D695AE06D2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78D4C4A-02D3-4690-8BC0-720FCDCCA491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -337,10 +337,13 @@
     <t>Frango</t>
   </si>
   <si>
-    <t>Contadora de histórias de Olvina</t>
-  </si>
-  <si>
     <t>O Senhor de Mysilia</t>
+  </si>
+  <si>
+    <t>Admiradores de Melvin.</t>
+  </si>
+  <si>
+    <t>Contadora de Histórias de Olvina</t>
   </si>
 </sst>
 </file>
@@ -722,14 +725,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="16" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -844,7 +851,7 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
@@ -1125,7 +1132,7 @@
         <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" t="s">
         <v>68</v>
@@ -1218,7 +1225,7 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
@@ -1235,7 +1242,7 @@
         <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Person.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Person.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78D4C4A-02D3-4690-8BC0-720FCDCCA491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C7FE4-80E0-47DD-B9BF-6383001B546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -344,6 +344,30 @@
   </si>
   <si>
     <t>Contadora de Histórias de Olvina</t>
+  </si>
+  <si>
+    <t>griffin</t>
+  </si>
+  <si>
+    <t>EA 23.117</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>グリフィン</t>
+  </si>
+  <si>
+    <t>bunny1</t>
+  </si>
+  <si>
+    <t>Bunny</t>
+  </si>
+  <si>
+    <t>バニーガール</t>
+  </si>
+  <si>
+    <t>bunny2</t>
   </si>
 </sst>
 </file>
@@ -721,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,6 +1326,57 @@
         <v>95</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
